--- a/va_facility_data_2025-02-20/Adam Benjamin Jr., Veterans' Administration Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Adam%20Benjamin%20Jr.%2C%20Veterans%27%20Administration%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Adam Benjamin Jr., Veterans' Administration Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Adam%20Benjamin%20Jr.%2C%20Veterans%27%20Administration%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R075f13f025114b63bf54ad354fe8362f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rab0b6fd620ce43729de063c2129a45ec"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R010171e2518344cfba7be7f8ebf9384c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R11d7eaade5ec453ba5d43e2949e7f84c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R327407af57b144e68ea28e481de0f0df"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc468bf7831dd41e49640263c04503305"/>
   </x:sheets>
 </x:workbook>
 </file>
